--- a/data/DBT.xlsx
+++ b/data/DBT.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>DBT</t>
@@ -28021,7 +28021,7 @@
         <v>2.0648459111E10</v>
       </c>
       <c r="I12" s="25" t="n">
-        <v>7.862938895E9</v>
+        <v>7.862938945E9</v>
       </c>
       <c r="K12" s="25" t="n">
         <v>3.3194064538E10</v>
@@ -28117,7 +28117,7 @@
         <v>9.053711861E9</v>
       </c>
       <c r="AP12" s="25" t="n">
-        <v>7.862938895E9</v>
+        <v>7.862938945E9</v>
       </c>
       <c r="AQ12" s="25" t="n">
         <v>1.8548743093E10</v>
@@ -28289,7 +28289,7 @@
         <v>1.9965479465E10</v>
       </c>
       <c r="I14" s="25" t="n">
-        <v>6.798580186E9</v>
+        <v>6.798580236E9</v>
       </c>
       <c r="K14" s="25" t="n">
         <v>2.8102675192E10</v>
@@ -28385,7 +28385,7 @@
         <v>7.565476937E9</v>
       </c>
       <c r="AP14" s="25" t="n">
-        <v>6.798580186E9</v>
+        <v>6.798580236E9</v>
       </c>
       <c r="AQ14" s="25" t="n">
         <v>7.613511148E9</v>
@@ -29629,7 +29629,7 @@
         <v>3.6972284417E10</v>
       </c>
       <c r="I24" s="25" t="n">
-        <v>9.669211933E9</v>
+        <v>8.560048456E9</v>
       </c>
       <c r="K24" s="25" t="n">
         <v>1.2971506455E10</v>
@@ -29725,7 +29725,7 @@
         <v>1.3539938681E10</v>
       </c>
       <c r="AP24" s="25" t="n">
-        <v>9.669211933E9</v>
+        <v>8.560048456E9</v>
       </c>
       <c r="AQ24" s="25" t="n">
         <v>1.3674296265E10</v>
@@ -30165,7 +30165,7 @@
         <v>3.6972284417E10</v>
       </c>
       <c r="I28" s="25" t="n">
-        <v>9.669211933E9</v>
+        <v>8.560048456E9</v>
       </c>
       <c r="K28" s="25" t="n">
         <v>1.2971506455E10</v>
@@ -30261,7 +30261,7 @@
         <v>1.3539938681E10</v>
       </c>
       <c r="AP28" s="25" t="n">
-        <v>9.669211933E9</v>
+        <v>8.560048456E9</v>
       </c>
       <c r="AQ28" s="25" t="n">
         <v>1.3674296265E10</v>
@@ -30299,7 +30299,7 @@
         <v>3.60339300587E11</v>
       </c>
       <c r="I29" s="25" t="n">
-        <v>4.71613767261E11</v>
+        <v>4.73356480205E11</v>
       </c>
       <c r="K29" s="25" t="n">
         <v>1.51723529218E11</v>
@@ -30395,7 +30395,7 @@
         <v>3.73585152643E11</v>
       </c>
       <c r="AP29" s="25" t="n">
-        <v>4.71613767261E11</v>
+        <v>4.73356480205E11</v>
       </c>
       <c r="AQ29" s="25" t="n">
         <v>4.31398755842E11</v>
@@ -30567,7 +30567,7 @@
         <v>9.245188988E9</v>
       </c>
       <c r="I31" s="25" t="n">
-        <v>1.2494950141E10</v>
+        <v>1.2463050791E10</v>
       </c>
       <c r="K31" s="25" t="n">
         <v>1.1203367894E10</v>
@@ -30663,7 +30663,7 @@
         <v>1.1430534212E10</v>
       </c>
       <c r="AP31" s="25" t="n">
-        <v>1.2494950141E10</v>
+        <v>1.2463050791E10</v>
       </c>
       <c r="AQ31" s="25" t="n">
         <v>1.1053727846E10</v>
@@ -30701,7 +30701,7 @@
         <v>2.70460444E8</v>
       </c>
       <c r="I32" s="25" t="n">
-        <v>1.54503123E9</v>
+        <v>1.57693058E9</v>
       </c>
       <c r="K32" s="25" t="n">
         <v>2.3633067E7</v>
@@ -30797,7 +30797,7 @@
         <v>0.0</v>
       </c>
       <c r="AP32" s="25" t="n">
-        <v>1.54503123E9</v>
+        <v>1.57693058E9</v>
       </c>
       <c r="AQ32" s="25" t="n">
         <v>6.70925417E8</v>
@@ -30969,7 +30969,7 @@
         <v>5.1449307314E10</v>
       </c>
       <c r="I34" s="25" t="n">
-        <v>6.2737602883E10</v>
+        <v>1.0275060995E10</v>
       </c>
       <c r="K34" s="25" t="n">
         <v>1.491112468E9</v>
@@ -31065,7 +31065,7 @@
         <v>5.6126663125E10</v>
       </c>
       <c r="AP34" s="25" t="n">
-        <v>6.2737602883E10</v>
+        <v>1.0275060995E10</v>
       </c>
       <c r="AQ34" s="25" t="n">
         <v>1.0512386127E10</v>
@@ -31103,7 +31103,7 @@
         <v>2.95361601588E11</v>
       </c>
       <c r="I35" s="25" t="n">
-        <v>3.44037219731E11</v>
+        <v>3.93824599563E11</v>
       </c>
       <c r="K35" s="25" t="n">
         <v>1.36693342036E11</v>
@@ -31199,7 +31199,7 @@
         <v>2.99941661803E11</v>
       </c>
       <c r="AP35" s="25" t="n">
-        <v>3.44037219731E11</v>
+        <v>3.93824599563E11</v>
       </c>
       <c r="AQ35" s="25" t="n">
         <v>3.9863038627E11</v>
@@ -31237,7 +31237,7 @@
         <v>4.3418139E7</v>
       </c>
       <c r="I36" s="25" t="n">
-        <v>4518998.0</v>
+        <v>4.422393998E9</v>
       </c>
       <c r="K36" s="25" t="n">
         <v>0.0</v>
@@ -31333,7 +31333,7 @@
         <v>7891856.0</v>
       </c>
       <c r="AP36" s="25" t="n">
-        <v>4518998.0</v>
+        <v>4.422393998E9</v>
       </c>
       <c r="AQ36" s="25" t="n">
         <v>5657859.0</v>
@@ -34051,7 +34051,7 @@
         <v>9.512654892E9</v>
       </c>
       <c r="I57" s="25" t="n">
-        <v>3.2026318215E10</v>
+        <v>3.196286367E10</v>
       </c>
       <c r="K57" s="25" t="n">
         <v>0.0</v>
@@ -34147,7 +34147,7 @@
         <v>3.1460318215E10</v>
       </c>
       <c r="AP57" s="25" t="n">
-        <v>3.2026318215E10</v>
+        <v>3.196286367E10</v>
       </c>
       <c r="AQ57" s="25" t="n">
         <v>3.196286367E10</v>
@@ -34453,7 +34453,7 @@
         <v>-9.2727273E7</v>
       </c>
       <c r="I60" s="25" t="n">
-        <v>0.0</v>
+        <v>-6.3454545E7</v>
       </c>
       <c r="K60" s="25" t="n">
         <v>0.0</v>
@@ -34549,7 +34549,7 @@
         <v>0.0</v>
       </c>
       <c r="AP60" s="25" t="n">
-        <v>0.0</v>
+        <v>-6.3454545E7</v>
       </c>
       <c r="AQ60" s="25" t="n">
         <v>0.0</v>
@@ -34587,7 +34587,7 @@
         <v>3.164623483E9</v>
       </c>
       <c r="I61" s="25" t="n">
-        <v>4.932251929E9</v>
+        <v>4.920354202E9</v>
       </c>
       <c r="K61" s="25" t="n">
         <v>0.0</v>
@@ -34683,7 +34683,7 @@
         <v>3.866995299E9</v>
       </c>
       <c r="AP61" s="25" t="n">
-        <v>4.932251929E9</v>
+        <v>4.920354202E9</v>
       </c>
       <c r="AQ61" s="25" t="n">
         <v>5.993527878E9</v>
@@ -34855,7 +34855,7 @@
         <v>2.052349894E9</v>
       </c>
       <c r="I63" s="25" t="n">
-        <v>3.346007414E9</v>
+        <v>3.338075596E9</v>
       </c>
       <c r="K63" s="25" t="n">
         <v>0.0</v>
@@ -34951,7 +34951,7 @@
         <v>7.02371816E8</v>
       </c>
       <c r="AP63" s="25" t="n">
-        <v>3.346007414E9</v>
+        <v>3.338075596E9</v>
       </c>
       <c r="AQ63" s="25" t="n">
         <v>1.073173676E9</v>
@@ -34989,7 +34989,7 @@
         <v>-9.2727273E7</v>
       </c>
       <c r="I64" s="25" t="n">
-        <v>-1.578378968E9</v>
+        <v>-1.582344877E9</v>
       </c>
       <c r="K64" s="25" t="n">
         <v>0.0</v>
@@ -35085,7 +35085,7 @@
         <v>0.0</v>
       </c>
       <c r="AP64" s="25" t="n">
-        <v>-1.578378968E9</v>
+        <v>-1.582344877E9</v>
       </c>
       <c r="AQ64" s="25" t="n">
         <v>0.0</v>
@@ -36999,7 +36999,7 @@
         <v>4.64747792326E11</v>
       </c>
       <c r="I79" s="25" t="n">
-        <v>5.16186183469E11</v>
+        <v>5.15811666611E11</v>
       </c>
       <c r="K79" s="25" t="n">
         <v>1.74315666057E11</v>
@@ -37095,7 +37095,7 @@
         <v>5.13386712242E11</v>
       </c>
       <c r="AP79" s="25" t="n">
-        <v>5.16186183469E11</v>
+        <v>5.15811666611E11</v>
       </c>
       <c r="AQ79" s="25" t="n">
         <v>5.64449857453E11</v>
@@ -37267,7 +37267,7 @@
         <v>6.011141199E9</v>
       </c>
       <c r="I81" s="25" t="n">
-        <v>1.5023247237E10</v>
+        <v>1.4648730379E10</v>
       </c>
       <c r="K81" s="25" t="n">
         <v>1.5023965354E10</v>
@@ -37363,7 +37363,7 @@
         <v>1.404812334E10</v>
       </c>
       <c r="AP81" s="25" t="n">
-        <v>1.5023247237E10</v>
+        <v>1.4648730379E10</v>
       </c>
       <c r="AQ81" s="25" t="n">
         <v>1.3940104856E10</v>
@@ -38473,7 +38473,7 @@
         <v>1.1346612782E10</v>
       </c>
       <c r="I90" s="25" t="n">
-        <v>9.974568844E9</v>
+        <v>1.0084908151E10</v>
       </c>
       <c r="K90" s="25" t="n">
         <v>1.453527991E9</v>
@@ -38569,7 +38569,7 @@
         <v>9.137666617E9</v>
       </c>
       <c r="AP90" s="25" t="n">
-        <v>9.974568844E9</v>
+        <v>1.0084908151E10</v>
       </c>
       <c r="AQ90" s="25" t="n">
         <v>3.565648497E9</v>
@@ -39009,7 +39009,7 @@
         <v>1.0783818462E10</v>
       </c>
       <c r="I94" s="25" t="n">
-        <v>9.229413063E9</v>
+        <v>9.33975237E9</v>
       </c>
       <c r="K94" s="25" t="n">
         <v>1.721917311E9</v>
@@ -39105,7 +39105,7 @@
         <v>7.551484723E9</v>
       </c>
       <c r="AP94" s="25" t="n">
-        <v>9.229413063E9</v>
+        <v>9.33975237E9</v>
       </c>
       <c r="AQ94" s="25" t="n">
         <v>2.453014743E9</v>
@@ -39813,7 +39813,7 @@
         <v>8.862148E9</v>
       </c>
       <c r="I100" s="25" t="n">
-        <v>7.816085145E9</v>
+        <v>7.848585145E9</v>
       </c>
       <c r="K100" s="25" t="n">
         <v>0.0</v>
@@ -39909,7 +39909,7 @@
         <v>2.084715793E9</v>
       </c>
       <c r="AP100" s="25" t="n">
-        <v>7.816085145E9</v>
+        <v>7.848585145E9</v>
       </c>
       <c r="AQ100" s="25" t="n">
         <v>2.02584547E9</v>
@@ -40349,7 +40349,7 @@
         <v>8.862148E9</v>
       </c>
       <c r="I104" s="25" t="n">
-        <v>7.816085145E9</v>
+        <v>7.848585145E9</v>
       </c>
       <c r="K104" s="25" t="n">
         <v>0.0</v>
@@ -40445,7 +40445,7 @@
         <v>2.084715793E9</v>
       </c>
       <c r="AP104" s="25" t="n">
-        <v>7.816085145E9</v>
+        <v>7.848585145E9</v>
       </c>
       <c r="AQ104" s="25" t="n">
         <v>2.02584547E9</v>
@@ -41823,7 +41823,7 @@
         <v>1.1653322091E10</v>
       </c>
       <c r="I115" s="25" t="n">
-        <v>3.0021597853E10</v>
+        <v>2.9227610452E10</v>
       </c>
       <c r="K115" s="25" t="n">
         <v>0.0</v>
@@ -41919,7 +41919,7 @@
         <v>3.3401608262E10</v>
       </c>
       <c r="AP115" s="25" t="n">
-        <v>3.0021597853E10</v>
+        <v>2.9227610452E10</v>
       </c>
       <c r="AQ115" s="25" t="n">
         <v>2.6170306114E10</v>
@@ -42359,7 +42359,7 @@
         <v>3.308581973E9</v>
       </c>
       <c r="I119" s="25" t="n">
-        <v>1.0215357153E10</v>
+        <v>9.421369752E9</v>
       </c>
       <c r="K119" s="25" t="n">
         <v>0.0</v>
@@ -42455,7 +42455,7 @@
         <v>1.1211243662E10</v>
       </c>
       <c r="AP119" s="25" t="n">
-        <v>1.0215357153E10</v>
+        <v>9.421369752E9</v>
       </c>
       <c r="AQ119" s="25" t="n">
         <v>7.690189314E9</v>
@@ -42627,7 +42627,7 @@
         <v>0.0</v>
       </c>
       <c r="I121" s="25" t="n">
-        <v>0.0</v>
+        <v>2.053065E11</v>
       </c>
       <c r="K121" s="25" t="n">
         <v>0.0</v>
@@ -42723,7 +42723,7 @@
         <v>0.0</v>
       </c>
       <c r="AP121" s="25" t="n">
-        <v>0.0</v>
+        <v>2.053065E11</v>
       </c>
       <c r="AQ121" s="25" t="n">
         <v>0.0</v>
@@ -42895,7 +42895,7 @@
         <v>0.0</v>
       </c>
       <c r="I123" s="25" t="n">
-        <v>0.0</v>
+        <v>2.053065E11</v>
       </c>
       <c r="K123" s="25" t="n">
         <v>0.0</v>
@@ -42991,7 +42991,7 @@
         <v>0.0</v>
       </c>
       <c r="AP123" s="25" t="n">
-        <v>0.0</v>
+        <v>2.053065E11</v>
       </c>
       <c r="AQ123" s="25" t="n">
         <v>0.0</v>
@@ -43029,7 +43029,7 @@
         <v>8.12608883536E11</v>
       </c>
       <c r="I124" s="25" t="n">
-        <v>8.69111310495E11</v>
+        <v>8.69111065995E11</v>
       </c>
       <c r="K124" s="25" t="n">
         <v>1.80604438683E11</v>
@@ -43125,7 +43125,7 @@
         <v>2.00777783445E11</v>
       </c>
       <c r="AP124" s="25" t="n">
-        <v>2.58379637048E11</v>
+        <v>2.58379392548E11</v>
       </c>
       <c r="AQ124" s="25" t="n">
         <v>1.66666380079E11</v>
@@ -43163,7 +43163,7 @@
         <v>8.11174225474E11</v>
       </c>
       <c r="I125" s="25" t="n">
-        <v>8.67952948744E11</v>
+        <v>8.67952704244E11</v>
       </c>
       <c r="K125" s="25" t="n">
         <v>1.80604438683E11</v>
@@ -43259,7 +43259,7 @@
         <v>2.0048985484E11</v>
       </c>
       <c r="AP125" s="25" t="n">
-        <v>2.5807805761E11</v>
+        <v>2.5807781311E11</v>
       </c>
       <c r="AQ125" s="25" t="n">
         <v>1.66376605205E11</v>
@@ -43565,7 +43565,7 @@
         <v>9.92668161E8</v>
       </c>
       <c r="I128" s="25" t="n">
-        <v>6.99722851E8</v>
+        <v>0.0</v>
       </c>
       <c r="K128" s="25" t="n">
         <v>8.23378231E8</v>
@@ -43661,7 +43661,7 @@
         <v>0.0</v>
       </c>
       <c r="AP128" s="25" t="n">
-        <v>-1.3911068E7</v>
+        <v>0.0</v>
       </c>
       <c r="AQ128" s="25" t="n">
         <v>5.435658969E9</v>
@@ -43967,7 +43967,7 @@
         <v>9.92668161E8</v>
       </c>
       <c r="I131" s="25" t="n">
-        <v>6.99722851E8</v>
+        <v>0.0</v>
       </c>
       <c r="K131" s="25" t="n">
         <v>3.55383161E8</v>
@@ -44063,7 +44063,7 @@
         <v>0.0</v>
       </c>
       <c r="AP131" s="25" t="n">
-        <v>-1.3911068E7</v>
+        <v>0.0</v>
       </c>
       <c r="AQ131" s="25" t="n">
         <v>4.6783333E7</v>
@@ -44503,7 +44503,7 @@
         <v>5.02000339709E11</v>
       </c>
       <c r="I135" s="25" t="n">
-        <v>5.22419230052E11</v>
+        <v>5.22308680015E11</v>
       </c>
       <c r="K135" s="25" t="n">
         <v>0.0</v>
@@ -44599,7 +44599,7 @@
         <v>1.27074987619E11</v>
       </c>
       <c r="AP135" s="25" t="n">
-        <v>1.484928362E11</v>
+        <v>1.48382286163E11</v>
       </c>
       <c r="AQ135" s="25" t="n">
         <v>8.2673194574E10</v>
@@ -44637,7 +44637,7 @@
         <v>4.30770465169E11</v>
       </c>
       <c r="I136" s="25" t="n">
-        <v>4.50821306211E11</v>
+        <v>4.49848017968E11</v>
       </c>
       <c r="K136" s="25" t="n">
         <v>0.0</v>
@@ -44733,7 +44733,7 @@
         <v>1.17988786872E11</v>
       </c>
       <c r="AP136" s="25" t="n">
-        <v>1.24799715874E11</v>
+        <v>1.23826427631E11</v>
       </c>
       <c r="AQ136" s="25" t="n">
         <v>8.0491095923E10</v>
@@ -44771,7 +44771,7 @@
         <v>7.114619134E10</v>
       </c>
       <c r="I137" s="25" t="n">
-        <v>7.1597923841E10</v>
+        <v>7.1393775733E10</v>
       </c>
       <c r="K137" s="25" t="n">
         <v>0.0</v>
@@ -44867,7 +44867,7 @@
         <v>8.536000752E9</v>
       </c>
       <c r="AP137" s="25" t="n">
-        <v>2.541766405E10</v>
+        <v>2.5213515942E10</v>
       </c>
       <c r="AQ137" s="25" t="n">
         <v>2.130877006E9</v>
@@ -44905,7 +44905,7 @@
         <v>8.36832E7</v>
       </c>
       <c r="I138" s="25" t="n">
-        <v>0.0</v>
+        <v>2.257110054E9</v>
       </c>
       <c r="K138" s="25" t="n">
         <v>0.0</v>
@@ -45001,7 +45001,7 @@
         <v>1.670581786E9</v>
       </c>
       <c r="AP138" s="25" t="n">
-        <v>-1.724543724E9</v>
+        <v>5.3256633E8</v>
       </c>
       <c r="AQ138" s="25" t="n">
         <v>5.1221645E7</v>
@@ -45575,7 +45575,7 @@
         <v>0.0</v>
       </c>
       <c r="I143" s="25" t="n">
-        <v>0.0</v>
+        <v>-1.19022374E9</v>
       </c>
       <c r="K143" s="25" t="n">
         <v>0.0</v>
@@ -45671,7 +45671,7 @@
         <v>-1.120381791E9</v>
       </c>
       <c r="AP143" s="25" t="n">
-        <v>0.0</v>
+        <v>-1.19022374E9</v>
       </c>
       <c r="AQ143" s="25" t="n">
         <v>0.0</v>
@@ -45843,7 +45843,7 @@
         <v>1.992339049E9</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>1.368837406E9</v>
+        <v>7.23276243E8</v>
       </c>
       <c r="K145" s="25" t="n">
         <v>0.0</v>
@@ -45939,7 +45939,7 @@
         <v>6.55500215E8</v>
       </c>
       <c r="AP145" s="25" t="n">
-        <v>4.28542589E8</v>
+        <v>-2.17018574E8</v>
       </c>
       <c r="AQ145" s="25" t="n">
         <v>6.15392266E8</v>
@@ -45977,7 +45977,7 @@
         <v>0.0</v>
       </c>
       <c r="I146" s="25" t="n">
-        <v>0.0</v>
+        <v>6.45561163E8</v>
       </c>
       <c r="K146" s="25" t="n">
         <v>0.0</v>
@@ -46073,7 +46073,7 @@
         <v>-3.41750004E8</v>
       </c>
       <c r="AP146" s="25" t="n">
-        <v>0.0</v>
+        <v>6.45561163E8</v>
       </c>
       <c r="AQ146" s="25" t="n">
         <v>0.0</v>
@@ -46513,7 +46513,7 @@
         <v>0.0</v>
       </c>
       <c r="I150" s="25" t="n">
-        <v>2.039072484E9</v>
+        <v>0.0</v>
       </c>
       <c r="K150" s="25" t="n">
         <v>0.0</v>
@@ -46609,7 +46609,7 @@
         <v>-3.87532544E8</v>
       </c>
       <c r="AP150" s="25" t="n">
-        <v>2.039072484E9</v>
+        <v>0.0</v>
       </c>
       <c r="AQ150" s="25" t="n">
         <v>0.0</v>
@@ -46915,7 +46915,7 @@
         <v>0.0</v>
       </c>
       <c r="I153" s="25" t="n">
-        <v>3.374144419E9</v>
+        <v>5.413216903E9</v>
       </c>
       <c r="K153" s="25" t="n">
         <v>0.0</v>
@@ -47011,7 +47011,7 @@
         <v>9.12527138E8</v>
       </c>
       <c r="AP153" s="25" t="n">
-        <v>-9.12527138E8</v>
+        <v>1.126545346E9</v>
       </c>
       <c r="AQ153" s="25" t="n">
         <v>6.59246399E8</v>
@@ -47049,7 +47049,7 @@
         <v>4.9685341302E10</v>
       </c>
       <c r="I154" s="25" t="n">
-        <v>4.0726493971E10</v>
+        <v>4.0730607734E10</v>
       </c>
       <c r="K154" s="25" t="n">
         <v>0.0</v>
@@ -47145,7 +47145,7 @@
         <v>9.739882968E9</v>
       </c>
       <c r="AP154" s="25" t="n">
-        <v>1.0146958676E10</v>
+        <v>1.0151072439E10</v>
       </c>
       <c r="AQ154" s="25" t="n">
         <v>1.0596296438E10</v>
@@ -47183,7 +47183,7 @@
         <v>3.953584409E10</v>
       </c>
       <c r="I155" s="25" t="n">
-        <v>4.0108987571E10</v>
+        <v>4.0113101334E10</v>
       </c>
       <c r="K155" s="25" t="n">
         <v>0.0</v>
@@ -47279,7 +47279,7 @@
         <v>9.852433629E9</v>
       </c>
       <c r="AP155" s="25" t="n">
-        <v>1.0162190498E10</v>
+        <v>1.0166304261E10</v>
       </c>
       <c r="AQ155" s="25" t="n">
         <v>1.0114458366E10</v>
@@ -47317,7 +47317,7 @@
         <v>5.2205617E7</v>
       </c>
       <c r="I156" s="25" t="n">
-        <v>6.7088248E7</v>
+        <v>0.0</v>
       </c>
       <c r="K156" s="25" t="n">
         <v>0.0</v>
@@ -47413,7 +47413,7 @@
         <v>2.6372494E7</v>
       </c>
       <c r="AP156" s="25" t="n">
-        <v>4.0715754E7</v>
+        <v>-2.6372494E7</v>
       </c>
       <c r="AQ156" s="25" t="n">
         <v>0.0</v>
@@ -47451,7 +47451,7 @@
         <v>0.0</v>
       </c>
       <c r="I157" s="25" t="n">
-        <v>0.0</v>
+        <v>4.1876654E7</v>
       </c>
       <c r="K157" s="25" t="n">
         <v>0.0</v>
@@ -47547,7 +47547,7 @@
         <v>0.0</v>
       </c>
       <c r="AP157" s="25" t="n">
-        <v>0.0</v>
+        <v>4.1876654E7</v>
       </c>
       <c r="AQ157" s="25" t="n">
         <v>0.0</v>
@@ -47719,7 +47719,7 @@
         <v>0.0</v>
       </c>
       <c r="I159" s="25" t="n">
-        <v>5.37717952E8</v>
+        <v>0.0</v>
       </c>
       <c r="K159" s="25" t="n">
         <v>0.0</v>
@@ -47815,7 +47815,7 @@
         <v>-2.61453938E8</v>
       </c>
       <c r="AP159" s="25" t="n">
-        <v>5.37717952E8</v>
+        <v>0.0</v>
       </c>
       <c r="AQ159" s="25" t="n">
         <v>0.0</v>
@@ -48121,7 +48121,7 @@
         <v>1.0097291595E10</v>
       </c>
       <c r="I162" s="25" t="n">
-        <v>1.27002E7</v>
+        <v>5.75629746E8</v>
       </c>
       <c r="K162" s="25" t="n">
         <v>0.0</v>
@@ -48217,7 +48217,7 @@
         <v>5.78148907E8</v>
       </c>
       <c r="AP162" s="25" t="n">
-        <v>-5.93665528E8</v>
+        <v>-3.0735982E7</v>
       </c>
       <c r="AQ162" s="25" t="n">
         <v>4.81838072E8</v>
@@ -48255,7 +48255,7 @@
         <v>7.39761566579E11</v>
       </c>
       <c r="I163" s="25" t="n">
-        <v>7.92522257015E11</v>
+        <v>8.21465697574E11</v>
       </c>
       <c r="K163" s="25" t="n">
         <v>0.0</v>
@@ -48351,7 +48351,7 @@
         <v>3.80111172452E11</v>
       </c>
       <c r="AP163" s="25" t="n">
-        <v>2.36095827381E11</v>
+        <v>2.6503926794E11</v>
       </c>
       <c r="AQ163" s="25" t="n">
         <v>1.83937465945E11</v>
@@ -48389,7 +48389,7 @@
         <v>5.4609551098E10</v>
       </c>
       <c r="I164" s="25" t="n">
-        <v>4.553036797E10</v>
+        <v>4.9932671812E10</v>
       </c>
       <c r="K164" s="25" t="n">
         <v>0.0</v>
@@ -48485,7 +48485,7 @@
         <v>9.297500847E9</v>
       </c>
       <c r="AP164" s="25" t="n">
-        <v>9.937013374E9</v>
+        <v>1.4339317216E10</v>
       </c>
       <c r="AQ164" s="25" t="n">
         <v>6.835654803E9</v>
@@ -48523,7 +48523,7 @@
         <v>1.43009772731E11</v>
       </c>
       <c r="I165" s="25" t="n">
-        <v>1.6657796631E11</v>
+        <v>1.70727369074E11</v>
       </c>
       <c r="K165" s="25" t="n">
         <v>0.0</v>
@@ -48619,7 +48619,7 @@
         <v>3.2978658571E10</v>
       </c>
       <c r="AP165" s="25" t="n">
-        <v>4.923027828E10</v>
+        <v>5.3379681044E10</v>
       </c>
       <c r="AQ165" s="25" t="n">
         <v>4.1520023384E10</v>
@@ -48657,7 +48657,7 @@
         <v>8.884218133E9</v>
       </c>
       <c r="I166" s="25" t="n">
-        <v>1.6969655659E10</v>
+        <v>1.7108637928E10</v>
       </c>
       <c r="K166" s="25" t="n">
         <v>0.0</v>
@@ -48753,7 +48753,7 @@
         <v>4.777385888E9</v>
       </c>
       <c r="AP166" s="25" t="n">
-        <v>4.855940455E9</v>
+        <v>4.994922724E9</v>
       </c>
       <c r="AQ166" s="25" t="n">
         <v>3.600362017E9</v>
@@ -48791,7 +48791,7 @@
         <v>8.0580526168E10</v>
       </c>
       <c r="I167" s="25" t="n">
-        <v>9.2775100601E10</v>
+        <v>1.12795207992E11</v>
       </c>
       <c r="K167" s="25" t="n">
         <v>0.0</v>
@@ -48887,7 +48887,7 @@
         <v>2.011438973E10</v>
       </c>
       <c r="AP167" s="25" t="n">
-        <v>2.8113961594E10</v>
+        <v>4.8134068985E10</v>
       </c>
       <c r="AQ167" s="25" t="n">
         <v>1.8859453532E10</v>
@@ -48925,7 +48925,7 @@
         <v>4.52677498449E11</v>
       </c>
       <c r="I168" s="25" t="n">
-        <v>4.70669166475E11</v>
+        <v>4.70901810768E11</v>
       </c>
       <c r="K168" s="25" t="n">
         <v>0.0</v>
@@ -49021,7 +49021,7 @@
         <v>3.12943237416E11</v>
       </c>
       <c r="AP168" s="25" t="n">
-        <v>1.43958633678E11</v>
+        <v>1.44191277971E11</v>
       </c>
       <c r="AQ168" s="25" t="n">
         <v>1.13121972209E11</v>

--- a/data/DBT.xlsx
+++ b/data/DBT.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>DBT</t>

--- a/data/DBT.xlsx
+++ b/data/DBT.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>DBT</t>

--- a/data/DBT.xlsx
+++ b/data/DBT.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>DBT</t>
